--- a/Lab2/1.2.a.xlsx
+++ b/Lab2/1.2.a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10efd8982cdf3c5e/Documents/CFU_num_methods/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10487A199E58805BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1128C5D8-D54A-405A-9AEC-91057462D2E9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10487A199E58805BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44958084-AF80-438C-A7B5-30986116C0AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>n=4</t>
+    <t>n=4 calc</t>
   </si>
   <si>
-    <t>n=10</t>
+    <t>n=4 datum</t>
   </si>
   <si>
-    <t>n=20</t>
+    <t>n=10 datum</t>
+  </si>
+  <si>
+    <t>n=20 datum</t>
+  </si>
+  <si>
+    <t>n=10 calc</t>
+  </si>
+  <si>
+    <t>n=20 calc</t>
   </si>
 </sst>
 </file>
@@ -121,24 +130,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=20</c:v>
+                  <c:v>n=20 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -300,22 +321,32 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=10</c:v>
+                  <c:v>n=10 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -417,13 +448,104 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=4</c:v>
+                  <c:v>n=4 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49D5-42F9-865E-48FD86C32412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=4 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -436,23 +558,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -460,23 +618,59 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$28:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5.8823500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.26102900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.270588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.4558800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0.50367600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.764706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.938971</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.938971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.764706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50367600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>-8.4558800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.270588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.26102900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5.8823500000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -485,7 +679,313 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49D5-42F9-865E-48FD86C32412}"/>
+              <c16:uniqueId val="{00000000-A7D3-4F9B-B6F2-BD2CF0410437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=10 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.750143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.0694000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2823500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26764199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.290024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.475435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82071300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82071300000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.475435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.290024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26764199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2823500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.0694000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.750143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7D3-4F9B-B6F2-BD2CF0410437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=20 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3796600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8812700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.305898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50127600000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79954000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79954000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50127600000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.305898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8812700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3796600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7D3-4F9B-B6F2-BD2CF0410437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1304,6 +1804,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1567,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I24"/>
+  <dimension ref="B3:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="E28" sqref="E28:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -1795,7 +2299,7 @@
         <v>0.60975599999999996</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>0.3</v>
       </c>
@@ -1803,7 +2307,7 @@
         <v>0.40983599999999998</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>0.4</v>
       </c>
@@ -1811,7 +2315,7 @@
         <v>0.28089900000000001</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>0.5</v>
       </c>
@@ -1819,7 +2323,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>0.6</v>
       </c>
@@ -1827,7 +2331,7 @@
         <v>0.147929</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>0.7</v>
       </c>
@@ -1835,7 +2339,7 @@
         <v>0.113122</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0.8</v>
       </c>
@@ -1843,7 +2347,7 @@
         <v>8.8968000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>0.9</v>
       </c>
@@ -1851,11 +2355,263 @@
         <v>7.1633199999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>5.8823500000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>-0.875</v>
+      </c>
+      <c r="C29">
+        <v>-0.26102900000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.750143</v>
+      </c>
+      <c r="E29">
+        <v>1.3796600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>-0.75</v>
+      </c>
+      <c r="C30">
+        <v>-0.270588</v>
+      </c>
+      <c r="D30">
+        <v>-8.0694000000000002E-2</v>
+      </c>
+      <c r="E30">
+        <v>-5.8812700000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>-0.625</v>
+      </c>
+      <c r="C31">
+        <v>-8.4558800000000003E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.2823500000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.15609300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>-0.5</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>0.26764199999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>-0.375</v>
+      </c>
+      <c r="C33">
+        <v>0.50367600000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.290024</v>
+      </c>
+      <c r="E33">
+        <v>0.305898</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>-0.25</v>
+      </c>
+      <c r="C34">
+        <v>0.764706</v>
+      </c>
+      <c r="D34">
+        <v>0.475435</v>
+      </c>
+      <c r="E34">
+        <v>0.50127600000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>-0.125</v>
+      </c>
+      <c r="C35">
+        <v>0.938971</v>
+      </c>
+      <c r="D35">
+        <v>0.82071300000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.79954000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.125</v>
+      </c>
+      <c r="C37">
+        <v>0.938971</v>
+      </c>
+      <c r="D37">
+        <v>0.82071300000000003</v>
+      </c>
+      <c r="E37">
+        <v>0.79954000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38">
+        <v>0.764706</v>
+      </c>
+      <c r="D38">
+        <v>0.475435</v>
+      </c>
+      <c r="E38">
+        <v>0.50127600000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.375</v>
+      </c>
+      <c r="C39">
+        <v>0.50367600000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.290024</v>
+      </c>
+      <c r="E39">
+        <v>0.305898</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>0.26764199999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.625</v>
+      </c>
+      <c r="C41">
+        <v>-8.4558800000000003E-2</v>
+      </c>
+      <c r="D41">
+        <v>9.2823500000000003E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.15609300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.75</v>
+      </c>
+      <c r="C42">
+        <v>-0.270588</v>
+      </c>
+      <c r="D42">
+        <v>-8.0694000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>-5.8812700000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.875</v>
+      </c>
+      <c r="C43">
+        <v>-0.26102900000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.750143</v>
+      </c>
+      <c r="E43">
+        <v>1.3796600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="E44">
         <v>5.8823500000000001E-2</v>
       </c>
     </row>
